--- a/DiagramaGantt.xlsx
+++ b/DiagramaGantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malvo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E74D113-30B3-41C2-BF13-AC043C4FD47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87577D6-8222-4790-8620-483DB67CAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>20-11-2023</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Eduardo Martín-Sonseca</t>
   </si>
   <si>
-    <t>2 h, 45 mins</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Colores</t>
   </si>
   <si>
-    <t>2h 45 mins.</t>
-  </si>
-  <si>
     <t>10h</t>
   </si>
   <si>
@@ -173,6 +167,15 @@
   </si>
   <si>
     <t>Tareas</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>7 h</t>
+  </si>
+  <si>
+    <t>2 h</t>
   </si>
 </sst>
 </file>
@@ -308,12 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,7 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -659,41 +661,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
     <col min="22" max="23" width="13" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>50</v>
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -764,340 +766,334 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="14"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="7" t="s">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="5" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
